--- a/BMR_LCT_data.xlsx
+++ b/BMR_LCT_data.xlsx
@@ -15,6 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -548,7 +549,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
